--- a/src/VNEXT/Dora.School/wwwroot/template/teacher.xlsx
+++ b/src/VNEXT/Dora.School/wwwroot/template/teacher.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,19 +24,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐枫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>340801198903121714</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0665</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +427,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -451,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -461,15 +449,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
